--- a/datos/catalogo-mare.xlsx
+++ b/datos/catalogo-mare.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MARE CREANDO 2025\CATALOGO MARE\plantilla para cloude\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E2C3F4F-7F9A-4E34-9F31-A3A11638D67D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D889608A-3A2A-4D48-AE0D-AA1C2080E1BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{227819F0-7ECA-4DCA-A611-9F2186BA8A76}"/>
   </bookViews>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="118">
   <si>
     <t>Código</t>
   </si>
@@ -389,6 +389,27 @@
   </si>
   <si>
     <t>Amarillo</t>
+  </si>
+  <si>
+    <t>LB318</t>
+  </si>
+  <si>
+    <t>25*12*19</t>
+  </si>
+  <si>
+    <t>LB318-1</t>
+  </si>
+  <si>
+    <t>LB318-2</t>
+  </si>
+  <si>
+    <t>LB318-3</t>
+  </si>
+  <si>
+    <t>LB318-4</t>
+  </si>
+  <si>
+    <t>LB318-5</t>
   </si>
 </sst>
 </file>
@@ -785,10 +806,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FDB109E-BBDE-4CBF-8652-93187ACB1643}">
-  <dimension ref="A1:BU7"/>
+  <dimension ref="A1:BU8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AF9" sqref="AF9"/>
+      <pane xSplit="1" topLeftCell="AB1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AP8" sqref="AP8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,7 +820,7 @@
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31.85546875" customWidth="1"/>
-    <col min="18" max="18" width="31.85546875" customWidth="1"/>
+    <col min="18" max="18" width="77.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:73" x14ac:dyDescent="0.25">
@@ -1521,6 +1543,60 @@
       <c r="AB7" s="2" t="str" cm="1">
         <f t="array" ref="AB7">IF(INDEX($G7:$Q7, COLUMN(K6))="", "", "https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/" &amp; INDEX($G7:$Q7, COLUMN(K6)))</f>
         <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:73" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8">
+        <v>695</v>
+      </c>
+      <c r="F8" t="s">
+        <v>112</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="R8" s="2" t="str" cm="1">
+        <f t="array" ref="R8">IF(INDEX($G8:$Q8, COLUMN(A7))="", "", "https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/" &amp; INDEX($G8:$Q8, COLUMN(A7)))</f>
+        <v>https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/LB318-1</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AS8" t="s">
+        <v>53</v>
+      </c>
+      <c r="AY8" t="s">
+        <v>53</v>
+      </c>
+      <c r="BA8" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/datos/catalogo-mare.xlsx
+++ b/datos/catalogo-mare.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MARE CREANDO 2025\CATALOGO MARE\plantilla para cloude\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D889608A-3A2A-4D48-AE0D-AA1C2080E1BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC2797A8-45EE-4374-8BD0-AFD55B2843A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{227819F0-7ECA-4DCA-A611-9F2186BA8A76}"/>
   </bookViews>
@@ -809,8 +809,8 @@
   <dimension ref="A1:BU8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="AB1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AP8" sqref="AP8"/>
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="X12" sqref="X12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1583,6 +1583,46 @@
         <f t="array" ref="R8">IF(INDEX($G8:$Q8, COLUMN(A7))="", "", "https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/" &amp; INDEX($G8:$Q8, COLUMN(A7)))</f>
         <v>https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/LB318-1</v>
       </c>
+      <c r="S8" s="2" t="str" cm="1">
+        <f t="array" ref="S8">IF(INDEX($G8:$Q8, COLUMN(B7))="", "", "https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/" &amp; INDEX($G8:$Q8, COLUMN(B7)))</f>
+        <v>https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/LB318-2</v>
+      </c>
+      <c r="T8" s="2" t="str" cm="1">
+        <f t="array" ref="T8">IF(INDEX($G8:$Q8, COLUMN(C7))="", "", "https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/" &amp; INDEX($G8:$Q8, COLUMN(C7)))</f>
+        <v>https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/LB318-3</v>
+      </c>
+      <c r="U8" s="2" t="str" cm="1">
+        <f t="array" ref="U8">IF(INDEX($G8:$Q8, COLUMN(D7))="", "", "https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/" &amp; INDEX($G8:$Q8, COLUMN(D7)))</f>
+        <v>https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/LB318-4</v>
+      </c>
+      <c r="V8" s="2" t="str" cm="1">
+        <f t="array" ref="V8">IF(INDEX($G8:$Q8, COLUMN(E7))="", "", "https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/" &amp; INDEX($G8:$Q8, COLUMN(E7)))</f>
+        <v>https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/LB318-5</v>
+      </c>
+      <c r="W8" s="2" t="str" cm="1">
+        <f t="array" ref="W8">IF(INDEX($G8:$Q8, COLUMN(F7))="", "", "https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/" &amp; INDEX($G8:$Q8, COLUMN(F7)))</f>
+        <v/>
+      </c>
+      <c r="X8" s="2" t="str" cm="1">
+        <f t="array" ref="X8">IF(INDEX($G8:$Q8, COLUMN(G7))="", "", "https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/" &amp; INDEX($G8:$Q8, COLUMN(G7)))</f>
+        <v/>
+      </c>
+      <c r="Y8" s="2" t="str" cm="1">
+        <f t="array" ref="Y8">IF(INDEX($G8:$Q8, COLUMN(H7))="", "", "https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/" &amp; INDEX($G8:$Q8, COLUMN(H7)))</f>
+        <v/>
+      </c>
+      <c r="Z8" s="2" t="str" cm="1">
+        <f t="array" ref="Z8">IF(INDEX($G8:$Q8, COLUMN(I7))="", "", "https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/" &amp; INDEX($G8:$Q8, COLUMN(I7)))</f>
+        <v/>
+      </c>
+      <c r="AA8" s="2" t="str" cm="1">
+        <f t="array" ref="AA8">IF(INDEX($G8:$Q8, COLUMN(J7))="", "", "https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/" &amp; INDEX($G8:$Q8, COLUMN(J7)))</f>
+        <v/>
+      </c>
+      <c r="AB8" s="2" t="str" cm="1">
+        <f t="array" ref="AB8">IF(INDEX($G8:$Q8, COLUMN(K7))="", "", "https://cdn.jsdelivr.net/gh/Ferabensrl/catalogo-mare@main/imagenes/" &amp; INDEX($G8:$Q8, COLUMN(K7)))</f>
+        <v/>
+      </c>
       <c r="AC8" t="s">
         <v>53</v>
       </c>
